--- a/bank/Предприятия-А.xlsx
+++ b/bank/Предприятия-А.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>Банкрот</t>
   </si>
@@ -781,6 +781,9 @@
   </si>
   <si>
     <t>ID248</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -2958,12 +2961,22 @@
   <dimension ref="A1:G249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>254</v>
+      </c>
       <c r="B1" t="s">
         <v>63</v>
       </c>
